--- a/config_3.9/act_hhl_ty_config.xlsx
+++ b/config_3.9/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>line|</t>
   </si>
@@ -83,22 +83,10 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>2000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-  </si>
-  <si>
     <t>200万金币</t>
   </si>
   <si>
     <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>1000万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
   </si>
   <si>
     <t>ID</t>
@@ -189,9 +177,6 @@
     <t>icon_gjhd</t>
   </si>
   <si>
-    <t>icon_zjhd</t>
-  </si>
-  <si>
     <t>icon_cjhd</t>
   </si>
   <si>
@@ -201,32 +186,7 @@
     <t>icon_yc</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高级核弹*1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>中级核弹*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -248,23 +208,6 @@
   </si>
   <si>
     <r>
-      <t>小金锤*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>小银锤*</t>
     </r>
     <r>
@@ -289,46 +232,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽玩偶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高档保温杯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽玩偶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端皂3块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -337,11 +240,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_004_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_004_hhl_</t>
+    <t>act_005_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_005_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用吸尘器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米蓝牙耳机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药薄片*10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金锤*10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pay_icon_gold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +321,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -420,7 +375,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +414,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -828,25 +786,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F2" s="11">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="G2" s="11">
-        <v>1615219199</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>1615823999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -863,25 +818,22 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="G3" s="11">
-        <v>1615219199</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>1615823999</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -901,7 +853,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,7 +869,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -940,17 +892,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="11">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D2" s="13">
+        <v>866600</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="11">
         <v>1</v>
       </c>
@@ -960,17 +910,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="11">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D3" s="13">
+        <v>96666</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="11">
         <v>1</v>
       </c>
@@ -980,17 +928,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D4" s="13">
+        <v>58888</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="11">
         <v>1</v>
       </c>
@@ -999,14 +945,14 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>20</v>
+      <c r="B5" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="11">
-        <v>24000</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="13">
+        <v>36000</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -1017,14 +963,14 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11">
-        <v>12000</v>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="10">
+        <v>18000</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -1035,14 +981,14 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6000</v>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7200</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
@@ -1053,18 +999,18 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2400</v>
+      <c r="B8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8000</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1072,13 +1018,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1200</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3666</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11">
@@ -1090,17 +1036,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D10" s="13">
+        <v>866600</v>
+      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
@@ -1110,17 +1054,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="11">
-        <v>8000</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D11" s="13">
+        <v>96666</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="11">
         <v>1</v>
       </c>
@@ -1130,17 +1072,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D12" s="13">
+        <v>58888</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="11">
         <v>1</v>
       </c>
@@ -1149,14 +1089,14 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11">
-        <v>24000</v>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13">
+        <v>36000</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
@@ -1167,14 +1107,14 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="11">
-        <v>12000</v>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="10">
+        <v>18000</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11">
@@ -1185,14 +1125,14 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>56</v>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11">
-        <v>6000</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="10">
+        <v>7200</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
@@ -1203,18 +1143,18 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2400</v>
+      <c r="B16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8000</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1222,13 +1162,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1200</v>
+        <v>45</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3666</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11">
@@ -1247,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1261,19 +1201,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1284,7 +1224,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1298,7 +1238,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1312,7 +1252,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1326,7 +1266,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1340,7 +1280,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1354,7 +1294,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1368,7 +1308,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1382,7 +1322,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1443,17 +1383,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,24 +1415,17 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1495,13 +1435,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1513,13 +1453,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.9/act_hhl_ty_config.xlsx
+++ b/config_3.9/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>line|</t>
   </si>
@@ -290,6 +290,14 @@
       </rPr>
       <t>8</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +383,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +424,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -725,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,10 +878,11 @@
     <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="23" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="7" max="7" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
@@ -886,8 +901,11 @@
       <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -904,8 +922,11 @@
       <c r="F2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -922,8 +943,9 @@
       <c r="F3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -940,8 +962,9 @@
       <c r="F4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -958,8 +981,9 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -976,8 +1000,9 @@
       <c r="F6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -994,8 +1019,9 @@
       <c r="F7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1012,8 +1038,9 @@
       <c r="F8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1030,8 +1057,9 @@
       <c r="F9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1048,8 +1076,11 @@
       <c r="F10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1066,8 +1097,9 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1102,8 +1135,9 @@
       <c r="F13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1120,8 +1154,9 @@
       <c r="F14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1138,8 +1173,9 @@
       <c r="F15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1156,8 +1192,9 @@
       <c r="F16" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1174,6 +1211,7 @@
       <c r="F17" s="11">
         <v>0</v>
       </c>
+      <c r="G17" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -1377,19 +1415,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,24 +1447,19 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,13 +1467,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1447,13 +1485,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/act_hhl_ty_config.xlsx
+++ b/config_3.9/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>line|</t>
   </si>
@@ -298,6 +298,14 @@
   </si>
   <si>
     <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +875,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1029,7 +1037,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D8" s="10">
         <v>8000</v>
@@ -1183,7 +1191,7 @@
         <v>59</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10">
         <v>8000</v>
@@ -1415,24 +1423,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,19 +1450,24 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1467,13 +1475,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1485,13 +1493,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
